--- a/BackTest/2020-01-26 BackTest DAC.xlsx
+++ b/BackTest/2020-01-26 BackTest DAC.xlsx
@@ -12925,11 +12925,17 @@
         <v>-779799.3158999999</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +12968,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13005,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13038,17 @@
         <v>-879453.8572999999</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13062,10 +13082,12 @@
       <c r="I384" t="n">
         <v>1.938</v>
       </c>
-      <c r="J384" t="n">
-        <v>1.938</v>
-      </c>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,15 +13116,15 @@
         <v>-880862.9532999999</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>1.938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L385" t="n">
@@ -13133,15 +13155,15 @@
         <v>-841001.3439</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>1.938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
@@ -13172,11 +13194,17 @@
         <v>-787745.8913</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13205,11 +13233,17 @@
         <v>-741327.5603</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13238,11 +13272,17 @@
         <v>-789822.4719</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>1.948</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13271,11 +13311,17 @@
         <v>-708311.5694</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13304,11 +13350,17 @@
         <v>-671280.9735000001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13337,11 +13389,17 @@
         <v>-671280.9735000001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1.947</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13374,7 +13432,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13403,11 +13465,17 @@
         <v>-706786.7978000001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13440,7 +13508,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13469,11 +13541,17 @@
         <v>-716298.0733</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13502,11 +13580,17 @@
         <v>-752616.883</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13535,11 +13619,17 @@
         <v>-691607.8951000001</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>1.943</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13568,11 +13658,17 @@
         <v>-726664.3860000001</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13601,11 +13697,17 @@
         <v>-824114.958059168</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13634,11 +13736,17 @@
         <v>-783788.149259168</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>1.938</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13667,11 +13775,17 @@
         <v>-739882.182059168</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13700,11 +13814,17 @@
         <v>-726470.480859168</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1.942</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13737,7 +13857,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13766,11 +13890,17 @@
         <v>-855223.7376591681</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13799,11 +13929,17 @@
         <v>-800550.590759168</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +13968,17 @@
         <v>-823792.5556591681</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>1.943</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13865,11 +14007,17 @@
         <v>-757941.410859168</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>1.938</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13898,11 +14046,17 @@
         <v>-778361.131259168</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13939,7 +14093,7 @@
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L410" t="n">
@@ -14048,9 +14202,11 @@
         <v>-832596.0510591681</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14085,9 +14241,11 @@
         <v>-861739.146259168</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14161,9 +14319,11 @@
         <v>-905295.457459168</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14198,9 +14358,11 @@
         <v>-866157.8574591681</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14235,9 +14397,11 @@
         <v>-849987.0081591681</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14346,9 +14510,11 @@
         <v>-907109.3175591681</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14383,9 +14549,11 @@
         <v>-864694.4577591681</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14420,9 +14588,11 @@
         <v>-819188.2308591681</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>1.943</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14457,9 +14627,11 @@
         <v>-819188.2308591681</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14494,9 +14666,11 @@
         <v>-880579.2198591682</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14531,9 +14705,11 @@
         <v>-842350.9020591682</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>1.942</v>
+      </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14568,9 +14744,11 @@
         <v>-896437.6974591683</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>1.943</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -14605,9 +14783,11 @@
         <v>-935536.3815591682</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>1.934</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14642,9 +14822,11 @@
         <v>-889098.4703591682</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>1.929</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14679,9 +14861,11 @@
         <v>-852328.2100591683</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>1.935</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -14716,9 +14900,11 @@
         <v>-907633.1545591683</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>1.936</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -14753,9 +14939,11 @@
         <v>-907633.1545591683</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>1.935</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14790,9 +14978,11 @@
         <v>-907633.1545591683</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>1.935</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -14827,9 +15017,11 @@
         <v>-866746.2391591682</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>1.935</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -14864,9 +15056,11 @@
         <v>-489819.3775591682</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>1.936</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -14938,9 +15132,11 @@
         <v>-495635.1423591682</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>1.938</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15086,9 +15282,11 @@
         <v>-483662.8293591682</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15382,9 +15580,11 @@
         <v>-450909.3732591682</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -16566,9 +16766,11 @@
         <v>-475567.0725591681</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16603,9 +16805,11 @@
         <v>-475567.0725591681</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16714,9 +16918,11 @@
         <v>-483666.6614591681</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -17084,9 +17290,11 @@
         <v>-553533.7958591682</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>1.942</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17121,9 +17329,11 @@
         <v>-513587.4359591682</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17380,9 +17590,11 @@
         <v>-625440.9035591681</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17417,9 +17629,11 @@
         <v>-706384.3495591681</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>1.944</v>
+      </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17454,9 +17668,11 @@
         <v>-658814.7720591681</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>1.943</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17491,9 +17707,11 @@
         <v>-613818.3081591681</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>1.944</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17676,9 +17894,11 @@
         <v>-663038.8511591681</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -17713,9 +17933,11 @@
         <v>-629502.6544591681</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17750,9 +17972,11 @@
         <v>-683342.4983591681</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17787,9 +18011,11 @@
         <v>-683342.4983591681</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17824,9 +18050,11 @@
         <v>-735042.2860591681</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17861,9 +18089,11 @@
         <v>-718502.115359168</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17898,9 +18128,11 @@
         <v>-675423.1435591681</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17935,9 +18167,11 @@
         <v>-720423.6526591681</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17972,9 +18206,11 @@
         <v>-680016.6050591681</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18009,9 +18245,11 @@
         <v>-634578.372959168</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18046,9 +18284,11 @@
         <v>-592713.2962591681</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>1.942</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18120,9 +18360,11 @@
         <v>-592169.9896591681</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18157,9 +18399,11 @@
         <v>-592169.9896591681</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18416,9 +18660,11 @@
         <v>-631808.246059168</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>1.946</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18453,9 +18699,11 @@
         <v>-631808.246059168</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18490,9 +18738,11 @@
         <v>-672756.795959168</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18527,9 +18777,11 @@
         <v>-630566.987459168</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>1.938</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18564,9 +18816,11 @@
         <v>-605017.1667591679</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>1.942</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18601,9 +18855,11 @@
         <v>-654421.8455591679</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>1.945</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18638,9 +18894,11 @@
         <v>-715408.0847591679</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>1.944</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18675,9 +18933,11 @@
         <v>-664973.8023591678</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18712,9 +18972,11 @@
         <v>-712374.5931591678</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>1.943</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18749,9 +19011,11 @@
         <v>-712374.5931591678</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>1.938</v>
+      </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -18786,9 +19050,11 @@
         <v>-655600.6667591678</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>1.938</v>
+      </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -18823,9 +19089,11 @@
         <v>-679488.5937591678</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>1.944</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18860,9 +19128,11 @@
         <v>-636076.3916591678</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -18897,9 +19167,11 @@
         <v>-636076.3916591678</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>1.947</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -18934,9 +19206,11 @@
         <v>-685366.5652591678</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>1.947</v>
+      </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -18971,9 +19245,11 @@
         <v>-576129.9862591678</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -19008,9 +19284,11 @@
         <v>-617934.2561591677</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>1.944</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19045,9 +19323,11 @@
         <v>-617934.2561591677</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -19082,9 +19362,11 @@
         <v>-793241.2126591677</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -19119,9 +19401,11 @@
         <v>-793241.2126591677</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>1.937</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19156,9 +19440,11 @@
         <v>-793241.2126591677</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>1.937</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19193,9 +19479,11 @@
         <v>-858414.9666591677</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>1.937</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19230,9 +19518,11 @@
         <v>-858414.9666591677</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>1.934</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19267,9 +19557,11 @@
         <v>-404502.5885591677</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>1.934</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19304,9 +19596,11 @@
         <v>-356427.1086591677</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>1.938</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19341,9 +19635,11 @@
         <v>-395825.5324591677</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>1.944</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19378,9 +19674,11 @@
         <v>-351927.0004591677</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>1.939</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19415,9 +19713,11 @@
         <v>-393450.4341591677</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>1.94</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19489,9 +19789,11 @@
         <v>-376684.6368591677</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>1.942</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19526,9 +19828,11 @@
         <v>-376684.6368591677</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19563,9 +19867,11 @@
         <v>-376684.6368591677</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19600,9 +19906,11 @@
         <v>-331574.9261591677</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>1.941</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -20599,9 +20907,11 @@
         <v>-728140.2269591676</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>1.924</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20636,9 +20946,11 @@
         <v>-558919.4376591677</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>1.916</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20673,9 +20985,11 @@
         <v>-573801.8769591677</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>1.92</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20710,9 +21024,11 @@
         <v>-511906.8032591676</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>1.918</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20747,9 +21063,11 @@
         <v>-511906.8032591676</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>1.923</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20899,9 +21217,11 @@
         <v>-488818.2098591676</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>1.92</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -21283,11 +21603,9 @@
         <v>-405902.7397591677</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>1.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21361,9 +21679,11 @@
         <v>-402906.4696591676</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>1.928</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21398,9 +21718,11 @@
         <v>-337044.5589591676</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>1.932</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21435,9 +21757,11 @@
         <v>-290947.5121591676</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>1.935</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -22471,16 +22795,18 @@
         <v>99397.84944083242</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L640" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
       <c r="M640" t="inlineStr"/>
     </row>
     <row r="641">
@@ -22506,11 +22832,15 @@
         <v>143862.8585408324</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22543,7 +22873,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22572,11 +22906,15 @@
         <v>121023.1516408324</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22605,11 +22943,15 @@
         <v>164609.3066408324</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22638,11 +22980,15 @@
         <v>129357.4417408324</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22671,11 +23017,15 @@
         <v>165370.5834408324</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22704,11 +23054,15 @@
         <v>118021.0533408324</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22737,11 +23091,15 @@
         <v>135593.1520408324</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22770,11 +23128,15 @@
         <v>105671.4920408324</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22803,11 +23165,15 @@
         <v>159624.6980408324</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22836,11 +23202,15 @@
         <v>115522.7119408324</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22873,7 +23243,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22906,7 +23280,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22935,11 +23313,15 @@
         <v>150789.0408408324</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22972,7 +23354,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23005,7 +23391,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23038,7 +23428,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23071,7 +23465,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23104,7 +23502,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23137,7 +23539,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23170,7 +23576,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23203,7 +23613,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23236,7 +23650,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23269,7 +23687,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23302,7 +23724,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23335,7 +23761,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23368,7 +23798,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23401,7 +23835,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23434,7 +23872,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23467,7 +23909,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23500,7 +23946,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23533,7 +23983,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23566,7 +24020,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23599,7 +24057,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23632,7 +24094,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23665,7 +24131,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23698,7 +24168,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23731,7 +24205,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23764,7 +24242,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23797,7 +24279,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23830,7 +24316,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23863,7 +24353,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23896,7 +24390,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23929,7 +24427,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23962,7 +24464,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23995,7 +24501,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24028,7 +24538,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24061,7 +24575,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24094,7 +24612,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24127,7 +24649,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24160,7 +24686,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24193,7 +24723,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24226,7 +24760,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24259,7 +24797,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24292,7 +24834,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24325,7 +24871,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24358,7 +24908,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24391,7 +24945,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24424,7 +24982,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24457,7 +25019,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24490,7 +25056,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24523,7 +25093,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24556,7 +25130,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24589,7 +25167,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24622,7 +25204,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24655,7 +25241,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24688,7 +25278,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24721,7 +25315,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24754,7 +25352,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24787,7 +25389,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24820,7 +25426,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24853,7 +25463,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24886,7 +25500,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24919,7 +25537,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24952,7 +25574,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24985,7 +25611,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25018,7 +25648,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25051,7 +25685,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25084,7 +25722,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25117,7 +25759,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25150,7 +25796,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25183,7 +25833,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25216,7 +25870,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25249,7 +25907,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25282,7 +25944,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25315,7 +25981,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25348,7 +26018,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25381,7 +26055,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25414,7 +26092,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25447,7 +26129,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25480,7 +26166,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25513,7 +26203,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25546,7 +26240,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25579,7 +26277,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25612,7 +26314,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25645,7 +26351,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25678,7 +26388,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25711,7 +26425,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25744,7 +26462,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25777,7 +26499,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25810,7 +26536,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25843,7 +26573,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25876,7 +26610,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25909,7 +26647,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25942,7 +26684,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25975,7 +26721,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26008,7 +26758,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26041,7 +26795,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26074,7 +26832,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26107,7 +26869,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26140,7 +26906,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26173,7 +26943,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26206,7 +26980,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26239,7 +27017,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26272,7 +27054,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26305,7 +27091,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26338,7 +27128,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26371,7 +27165,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26404,7 +27202,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26437,7 +27239,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26470,7 +27276,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26503,7 +27313,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26536,7 +27350,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26569,7 +27387,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26602,7 +27424,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26635,7 +27461,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26668,7 +27498,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26701,7 +27535,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26734,7 +27572,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26767,7 +27609,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26800,7 +27646,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26833,7 +27683,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26866,7 +27720,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26899,7 +27757,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26932,7 +27794,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26965,7 +27831,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26998,7 +27868,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27031,7 +27905,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27064,7 +27942,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27097,7 +27979,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27130,7 +28016,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27163,7 +28053,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27196,7 +28090,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27229,7 +28127,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27262,7 +28164,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27295,7 +28201,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27328,7 +28238,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27361,7 +28275,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27394,7 +28312,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27427,7 +28349,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27460,7 +28386,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27493,7 +28423,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27526,7 +28460,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27559,7 +28497,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27592,7 +28534,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27625,7 +28571,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27658,7 +28608,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27691,7 +28645,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27724,7 +28682,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27757,7 +28719,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27790,7 +28756,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27823,7 +28793,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27856,7 +28830,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27889,7 +28867,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27922,7 +28904,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27955,7 +28941,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27988,7 +28978,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28021,7 +29015,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28054,7 +29052,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28087,7 +29089,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28120,7 +29126,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28153,7 +29163,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28186,7 +29200,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28219,7 +29237,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28252,7 +29274,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28285,7 +29311,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28318,7 +29348,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28351,7 +29385,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28384,7 +29422,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28417,7 +29459,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28450,7 +29496,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28483,7 +29533,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28516,7 +29570,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28549,7 +29607,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28582,7 +29644,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28615,7 +29681,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28648,7 +29718,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28681,7 +29755,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28714,7 +29792,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28747,7 +29829,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28780,7 +29866,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28813,7 +29903,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28846,7 +29940,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28879,7 +29977,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28912,7 +30014,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28945,7 +30051,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28978,7 +30088,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29011,7 +30125,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29044,7 +30162,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29077,7 +30199,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29110,7 +30236,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29143,7 +30273,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29176,7 +30310,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29209,7 +30347,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29242,7 +30384,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29275,7 +30421,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29308,7 +30458,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29341,7 +30495,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29374,7 +30532,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29407,7 +30569,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29440,7 +30606,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29473,7 +30643,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29506,7 +30680,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29539,7 +30717,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29572,7 +30754,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29605,7 +30791,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29638,7 +30828,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29671,7 +30865,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29704,7 +30902,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29737,7 +30939,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29770,7 +30976,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29803,7 +31013,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29836,7 +31050,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29869,7 +31087,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29902,7 +31124,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29935,7 +31161,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29968,7 +31198,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30001,7 +31235,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30034,7 +31272,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30067,7 +31309,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30100,7 +31346,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30133,7 +31383,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30166,7 +31420,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30199,7 +31457,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30232,7 +31494,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30265,7 +31531,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30298,7 +31568,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30331,7 +31605,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30364,7 +31642,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30397,7 +31679,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30430,7 +31716,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30463,7 +31753,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30496,7 +31790,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30529,7 +31827,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30562,7 +31864,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30595,7 +31901,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30628,7 +31938,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30661,7 +31975,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30694,7 +32012,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30727,7 +32049,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30760,7 +32086,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30793,7 +32123,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30826,7 +32160,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30859,7 +32197,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30892,7 +32234,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30925,7 +32271,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30958,7 +32308,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30991,7 +32345,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31024,7 +32382,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31057,7 +32419,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31090,7 +32456,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31123,7 +32493,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31156,7 +32530,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31189,7 +32567,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31222,7 +32604,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31255,7 +32641,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31288,7 +32678,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31321,7 +32715,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31354,7 +32752,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31387,7 +32789,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31420,7 +32826,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31453,7 +32863,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31486,7 +32900,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31519,7 +32937,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31552,7 +32974,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31585,7 +33011,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31618,7 +33048,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31651,7 +33085,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31684,7 +33122,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31717,7 +33159,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31750,7 +33196,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31783,7 +33233,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31816,7 +33270,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31849,7 +33307,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31882,7 +33344,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31915,7 +33381,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31948,7 +33418,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31981,7 +33455,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32014,7 +33492,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32047,7 +33529,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32080,7 +33566,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32113,7 +33603,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32146,7 +33640,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32179,7 +33677,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32212,7 +33714,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32245,7 +33751,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32278,7 +33788,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32311,7 +33825,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32344,7 +33862,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32377,7 +33899,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32410,7 +33936,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32443,7 +33973,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32476,7 +34010,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32509,7 +34047,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32542,7 +34084,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32575,7 +34121,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32608,7 +34158,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32641,7 +34195,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32674,7 +34232,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32707,7 +34269,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32740,7 +34306,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32773,7 +34343,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32806,7 +34380,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32839,7 +34417,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32872,7 +34454,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32905,7 +34491,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32938,7 +34528,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32971,7 +34565,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33004,7 +34602,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33037,7 +34639,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33070,7 +34676,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33103,7 +34713,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33136,7 +34750,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33165,14 +34783,16 @@
         <v>599382.9096017224</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
-      <c r="L964" t="n">
-        <v>1</v>
-      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L964" t="inlineStr"/>
       <c r="M964" t="inlineStr"/>
     </row>
     <row r="965">
@@ -33561,7 +35181,7 @@
         <v>652301.9878017225</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33792,7 +35412,7 @@
         <v>623871.7099017226</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33825,7 +35445,7 @@
         <v>623871.7099017226</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33891,7 +35511,7 @@
         <v>576949.4532017227</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34056,7 +35676,7 @@
         <v>591646.6698017229</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34089,7 +35709,7 @@
         <v>529013.6459017228</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34122,7 +35742,7 @@
         <v>484117.8156017228</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34155,7 +35775,7 @@
         <v>457636.3113017228</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34353,7 +35973,7 @@
         <v>437625.8505017228</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35046,7 +36666,7 @@
         <v>586776.9278017229</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -37983,7 +39603,7 @@
         <v>469004.8155017231</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38379,7 +39999,7 @@
         <v>357648.721901723</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -38445,7 +40065,7 @@
         <v>311937.611801723</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -38478,7 +40098,7 @@
         <v>261445.765801723</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39732,7 +41352,7 @@
         <v>359644.4274017228</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -41448,7 +43068,7 @@
         <v>551078.8479806648</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -41481,7 +43101,7 @@
         <v>610516.3831806649</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -41514,7 +43134,7 @@
         <v>572700.7204806649</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -41547,7 +43167,7 @@
         <v>529937.5733806649</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -41580,7 +43200,7 @@
         <v>576128.4507806649</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -41613,7 +43233,7 @@
         <v>527246.8502806649</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -41646,7 +43266,7 @@
         <v>585005.4933806648</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -41679,7 +43299,7 @@
         <v>632316.5948806648</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -41712,7 +43332,7 @@
         <v>587648.8898806649</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -41745,7 +43365,7 @@
         <v>548666.8539806649</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -41778,7 +43398,7 @@
         <v>589965.2414806648</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -41811,7 +43431,7 @@
         <v>640063.2171806648</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -41844,7 +43464,7 @@
         <v>596600.5008806648</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
@@ -41877,7 +43497,7 @@
         <v>570172.5026806648</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -41910,7 +43530,7 @@
         <v>570172.5026806648</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -41943,7 +43563,7 @@
         <v>603507.5453806648</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -41976,7 +43596,7 @@
         <v>555580.1889806647</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -42009,7 +43629,7 @@
         <v>555580.1889806647</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -42042,7 +43662,7 @@
         <v>538695.6591806647</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -42075,7 +43695,7 @@
         <v>581203.2583806647</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -42108,7 +43728,7 @@
         <v>542685.8064806648</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -42141,7 +43761,7 @@
         <v>542685.8064806648</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -42174,7 +43794,7 @@
         <v>567291.3704806648</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
@@ -42207,7 +43827,7 @@
         <v>540495.7767806648</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
@@ -42240,7 +43860,7 @@
         <v>574516.5318806648</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
@@ -42273,7 +43893,7 @@
         <v>646584.7946806648</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
@@ -42306,7 +43926,7 @@
         <v>612619.6226806648</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
@@ -42339,7 +43959,7 @@
         <v>671574.1626806648</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
@@ -42372,7 +43992,7 @@
         <v>630664.9277806648</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
@@ -42405,7 +44025,7 @@
         <v>598291.6064806648</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
@@ -42438,7 +44058,7 @@
         <v>644315.3754806648</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
@@ -42471,7 +44091,7 @@
         <v>602099.4598806648</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -42504,7 +44124,7 @@
         <v>623987.5510806649</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
@@ -42537,7 +44157,7 @@
         <v>582698.9124806649</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -42570,7 +44190,7 @@
         <v>557994.9361806649</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -42603,7 +44223,7 @@
         <v>557994.9361806649</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -42636,7 +44256,7 @@
         <v>576413.9908806649</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -42669,7 +44289,7 @@
         <v>614735.4936806649</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -42702,7 +44322,7 @@
         <v>677082.7122806649</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -42735,7 +44355,7 @@
         <v>635194.1504806649</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -42768,7 +44388,7 @@
         <v>673261.911280665</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -42801,7 +44421,7 @@
         <v>710907.406080665</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -42834,7 +44454,7 @@
         <v>673307.2699806649</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -42867,7 +44487,7 @@
         <v>673307.2699806649</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -42900,7 +44520,7 @@
         <v>631335.5298806649</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -42933,7 +44553,7 @@
         <v>675923.1890806649</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -42966,7 +44586,7 @@
         <v>737825.3163806649</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -42999,7 +44619,7 @@
         <v>716598.0544806649</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -43032,7 +44652,7 @@
         <v>752123.2457806648</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -43065,7 +44685,7 @@
         <v>705089.3206806649</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -43098,7 +44718,7 @@
         <v>746243.3767806649</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -43131,7 +44751,7 @@
         <v>696584.3310806649</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -43164,7 +44784,7 @@
         <v>647485.5430806649</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -43197,7 +44817,7 @@
         <v>692314.0371806649</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -43230,7 +44850,7 @@
         <v>648495.743180665</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -43263,7 +44883,7 @@
         <v>770878.4379806649</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -43296,7 +44916,7 @@
         <v>753833.5939806649</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -43329,7 +44949,7 @@
         <v>798953.5453806649</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -43362,7 +44982,7 @@
         <v>757331.0796806649</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -43395,7 +45015,7 @@
         <v>757331.0796806649</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -43428,7 +45048,7 @@
         <v>714945.0898806649</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -43461,7 +45081,7 @@
         <v>747767.2103806649</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -43494,7 +45114,7 @@
         <v>795619.1496806649</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -43527,7 +45147,7 @@
         <v>724724.4827806649</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -43560,7 +45180,7 @@
         <v>762193.5602806649</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -43593,7 +45213,7 @@
         <v>813884.1556806649</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -43626,7 +45246,7 @@
         <v>773602.2084806649</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
@@ -43659,7 +45279,7 @@
         <v>811563.9364806649</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -43692,7 +45312,7 @@
         <v>764336.6873806649</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -43725,7 +45345,7 @@
         <v>764336.6873806649</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -43758,7 +45378,7 @@
         <v>779211.8069806648</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -43791,7 +45411,7 @@
         <v>735310.9726806649</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -43824,7 +45444,7 @@
         <v>698864.2795806648</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -43989,7 +45609,7 @@
         <v>696238.4802806647</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -44022,7 +45642,7 @@
         <v>748790.7704806648</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -44055,7 +45675,7 @@
         <v>748790.7704806648</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -44088,7 +45708,7 @@
         <v>781476.5949806648</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -44121,7 +45741,7 @@
         <v>781476.5949806648</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -44154,7 +45774,7 @@
         <v>736979.7969806648</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -44319,7 +45939,7 @@
         <v>775040.5896806648</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -44352,7 +45972,7 @@
         <v>775040.5896806648</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -44385,7 +46005,7 @@
         <v>739570.6339806648</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44418,7 +46038,7 @@
         <v>777807.2681806647</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -44451,7 +46071,7 @@
         <v>722783.6886806648</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -44484,7 +46104,7 @@
         <v>742686.3386806648</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -44517,7 +46137,7 @@
         <v>698293.3606806648</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -44550,7 +46170,7 @@
         <v>698293.3606806648</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -44649,7 +46269,7 @@
         <v>677403.7244573518</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -44682,7 +46302,7 @@
         <v>648848.1015573519</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -44715,7 +46335,7 @@
         <v>390938.4947573519</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -44748,7 +46368,7 @@
         <v>453413.5223573518</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -44946,7 +46566,7 @@
         <v>436375.8987573518</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
